--- a/agile-test-plan-template.xlsx
+++ b/agile-test-plan-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\WebstormProjects\DSSCoursework0021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eleva\Documents\GitHub\DSSCoursework002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02315229-5ED1-40D8-93EF-CDE39CE0A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4E314-CD95-4377-B4B0-7AE545299C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="6015" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>Test Plan Creation Date</t>
   </si>
@@ -168,9 +168,6 @@
     <t>No errors found. The function must return true and produce no errors</t>
   </si>
   <si>
-    <t>James Wright</t>
-  </si>
-  <si>
     <t>UG17 - Food Blog</t>
   </si>
   <si>
@@ -203,6 +200,107 @@
   </si>
   <si>
     <t>Login took 45 seconds to complete with no autofill. Page for register/login changed to Profile. 2FA code is too long and captcha was too hard.</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>User testing on the Registration</t>
+  </si>
+  <si>
+    <t>Server running</t>
+  </si>
+  <si>
+    <t>1. Navigate to register page
+2. Enter details for a new user
+3. Complete captcha
+4. Click register
+5. Complete Authentication via e-mail</t>
+  </si>
+  <si>
+    <t>The user should be logged in and the account should be created</t>
+  </si>
+  <si>
+    <t>Registration took ~1 minute to complete. Authentication page loaded correctly and the website logged me in after registration. The account was also created.</t>
+  </si>
+  <si>
+    <t>Everything worked as expected</t>
+  </si>
+  <si>
+    <t>Viewing posts</t>
+  </si>
+  <si>
+    <t>Creating a post</t>
+  </si>
+  <si>
+    <t>Deleting a post</t>
+  </si>
+  <si>
+    <t>Editing a post</t>
+  </si>
+  <si>
+    <t>Using the search bar</t>
+  </si>
+  <si>
+    <t>James Wright, George Beales</t>
+  </si>
+  <si>
+    <t>User testing on viewing posts</t>
+  </si>
+  <si>
+    <t>User testing on creating a post</t>
+  </si>
+  <si>
+    <t>User testing on deleting a post</t>
+  </si>
+  <si>
+    <t>User testing on editing a post</t>
+  </si>
+  <si>
+    <t>User testing on using the search bar</t>
+  </si>
+  <si>
+    <t>Server running and user is logged in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Access the home page
+</t>
+  </si>
+  <si>
+    <t>The user should see all the posts that have been created fill up the screen.</t>
+  </si>
+  <si>
+    <t>All the posts stored on the website display for the user.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Create a post screen from the navbar.
+2. Enter the post details
+3. Upload an image for the post.
+4. Click the create a post button.</t>
+  </si>
+  <si>
+    <t>The user should be able to easily upload information for their desired post and the post should be quickly made and made visible to the user on the home page immediately after creating the post.</t>
+  </si>
+  <si>
+    <t>The post gets created and the user is sent to the home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captcha system </t>
+  </si>
+  <si>
+    <t>User testing on the captcha system</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page
+2. Find a post that you have made on the login you are logged in on.
+3. If you have not made a post refer to test 9.
+4. Click the delete post button.</t>
+  </si>
+  <si>
+    <t>The user's post should get deleted and should no longer be visible.</t>
+  </si>
+  <si>
+    <t>The post gets deleted and the user can no longer see the post.</t>
   </si>
 </sst>
 </file>
@@ -252,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -395,11 +493,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,6 +575,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,9 +602,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,18 +902,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
     <col min="8" max="8" width="33.28515625" customWidth="1"/>
     <col min="9" max="9" width="32.28515625" customWidth="1"/>
     <col min="10" max="10" width="28.85546875" customWidth="1"/>
@@ -767,15 +922,15 @@
   <sheetData>
     <row r="1" spans="2:19" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -787,49 +942,49 @@
       <c r="S2" s="10"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26">
         <v>44663</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -979,99 +1134,237 @@
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>41</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:19" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
+    <row r="12" spans="2:19" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="27">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="E12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="G12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="H12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:19" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
+    <row r="13" spans="2:19" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="14" spans="2:19" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
+    <row r="14" spans="2:19" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="15" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:19" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
+        <v>9</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
+        <v>10</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="34">
+        <v>11</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="34">
+        <v>12</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/agile-test-plan-template.xlsx
+++ b/agile-test-plan-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eleva\Documents\GitHub\DSSCoursework002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfie\Documents\GitHub\DSSCoursework002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4E314-CD95-4377-B4B0-7AE545299C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D4ED4-6294-4F2F-B83F-ED812BF2DDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>Test Plan Creation Date</t>
   </si>
@@ -301,6 +301,42 @@
   </si>
   <si>
     <t>The post gets deleted and the user can no longer see the post.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page
+2. Find a post that you have made on the login you are logged in on.
+3. If you have not made a post refer to test 9.
+4. Click the edit post button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home 
+page
+2. Click on the search bar
+3. Type what you would like to find
+4. Press enter and find it</t>
+  </si>
+  <si>
+    <t>The user's post should be edited with their changes</t>
+  </si>
+  <si>
+    <t>The post is edited</t>
+  </si>
+  <si>
+    <t>The user should be able to search via the search bar</t>
+  </si>
+  <si>
+    <t>They can utilise the search bar</t>
+  </si>
+  <si>
+    <t>1. Navigate to log in page
+2. Attempt to login without captcha 
+3. See if you can successfully log in</t>
+  </si>
+  <si>
+    <t>The user should not be able to log in</t>
+  </si>
+  <si>
+    <t>The user cannot log in</t>
   </si>
 </sst>
 </file>
@@ -536,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,30 +614,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -612,14 +624,34 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,15 +954,15 @@
   <sheetData>
     <row r="1" spans="2:19" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -942,49 +974,49 @@
       <c r="S2" s="10"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34">
         <v>44663</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="22" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -1159,31 +1191,31 @@
       </c>
     </row>
     <row r="12" spans="2:19" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="27">
+      <c r="B12" s="19">
         <v>6</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1203,13 +1235,13 @@
       <c r="F13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="24" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1246,110 +1278,148 @@
       </c>
     </row>
     <row r="15" spans="2:19" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
+      <c r="B15" s="25">
         <v>9</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:19" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
+      <c r="B16" s="25">
         <v>10</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
+    <row r="17" spans="2:10" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
         <v>11</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="F17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="18" spans="2:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
         <v>12</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="F18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="19" spans="2:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
         <v>13</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="26" t="s">
         <v>69</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
